--- a/02_Freshworks_QuoteTab_Project.xlsx
+++ b/02_Freshworks_QuoteTab_Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AutomationTesting\Assignments\Manual Assignments\Manual Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32270497-380D-472D-8FB4-F31D1FD54544}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313E5606-907A-43BA-AF29-35D3467D48A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="775" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="196">
   <si>
     <t>Project Name</t>
   </si>
@@ -1106,7 +1106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1134,6 +1134,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,7 +1263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1303,9 +1309,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1466,6 +1469,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2640,94 +2652,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F10"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="47" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="47" customWidth="1"/>
-    <col min="3" max="4" width="30.85546875" style="47" customWidth="1"/>
-    <col min="5" max="5" width="14" style="47" customWidth="1"/>
-    <col min="6" max="6" width="96.5703125" style="47" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="47"/>
+    <col min="1" max="1" width="16.28515625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="46" customWidth="1"/>
+    <col min="3" max="4" width="30.85546875" style="46" customWidth="1"/>
+    <col min="5" max="5" width="14" style="46" customWidth="1"/>
+    <col min="6" max="6" width="96.5703125" style="46" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="46"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="63"/>
+      <c r="C2" s="62"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="63"/>
+      <c r="C3" s="62"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="63"/>
+      <c r="C4" s="62"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="63"/>
+      <c r="C5" s="62"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="63"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="62"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="49"/>
+      <c r="B7" s="48"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="49"/>
+      <c r="B8" s="48"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="50" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="75">
-      <c r="A10" s="57">
+      <c r="A10" s="56">
         <v>1</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="53" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2736,10 +2748,10 @@
       <c r="D10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="52" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2763,97 +2775,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="40" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="40" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="58" style="40" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="40" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="40"/>
+    <col min="1" max="1" width="18.42578125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="58" style="39" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="39" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="15">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="63"/>
+      <c r="C2" s="62"/>
     </row>
     <row r="3" spans="1:5" ht="15">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="63"/>
+      <c r="C3" s="62"/>
     </row>
     <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="67"/>
     </row>
     <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="69">
+      <c r="B5" s="68">
         <v>1</v>
       </c>
-      <c r="C5" s="70"/>
+      <c r="C5" s="69"/>
     </row>
     <row r="6" spans="1:5" ht="15">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="72"/>
+      <c r="C6" s="71"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
     </row>
     <row r="10" spans="1:5" ht="15">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="43" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="55">
+      <c r="A11" s="54">
         <v>1</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2862,68 +2874,68 @@
       <c r="D11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="44">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="B12" s="46"/>
+      <c r="B12" s="45"/>
     </row>
     <row r="13" spans="1:5" ht="15">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="43" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15">
-      <c r="A14" s="45">
+      <c r="A14" s="44">
         <v>1</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="44" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="44" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2950,126 +2962,126 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="68.140625" style="33" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="33"/>
+    <col min="1" max="1" width="21.140625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="68.140625" style="32" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="73"/>
+      <c r="B1" s="72"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="37" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3088,7 +3100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
@@ -3096,25 +3108,25 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="28" customWidth="1"/>
     <col min="3" max="3" width="36.7109375" customWidth="1"/>
     <col min="4" max="4" width="44.42578125" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
     <col min="6" max="6" width="79.42578125" customWidth="1"/>
     <col min="7" max="7" width="76.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="30" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="30" customWidth="1"/>
-    <col min="10" max="10" width="14" style="30" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="30" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="30" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" style="30" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="29" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="14" style="29" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="29" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="29" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>53</v>
       </c>
       <c r="C1" s="16" t="s">
@@ -3155,22 +3167,22 @@
       <c r="A2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="31" t="s">
         <v>69</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -3196,22 +3208,22 @@
       <c r="A3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="31" t="s">
         <v>69</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -3237,22 +3249,22 @@
       <c r="A4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="31" t="s">
         <v>81</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -3278,19 +3290,19 @@
       <c r="A5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="23" t="s">
         <v>80</v>
       </c>
       <c r="G5" s="11" t="s">
@@ -3319,22 +3331,22 @@
       <c r="A6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="31" t="s">
         <v>87</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -3360,22 +3372,22 @@
       <c r="A7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="31" t="s">
         <v>90</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -3401,22 +3413,22 @@
       <c r="A8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="31" t="s">
         <v>95</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -3442,22 +3454,22 @@
       <c r="A9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="31" t="s">
         <v>99</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -3483,22 +3495,22 @@
       <c r="A10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="31" t="s">
         <v>101</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -3524,22 +3536,22 @@
       <c r="A11" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="31" t="s">
         <v>106</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -3565,22 +3577,22 @@
       <c r="A12" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="31" t="s">
         <v>109</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -3606,22 +3618,22 @@
       <c r="A13" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="31" t="s">
         <v>114</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -3647,22 +3659,22 @@
       <c r="A14" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="31" t="s">
         <v>119</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -3688,22 +3700,22 @@
       <c r="A15" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="31" t="s">
         <v>124</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -3729,22 +3741,22 @@
       <c r="A16" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="31" t="s">
         <v>129</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -3770,22 +3782,22 @@
       <c r="A17" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="31" t="s">
         <v>134</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -3811,22 +3823,22 @@
       <c r="A18" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="31" t="s">
         <v>139</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -3852,22 +3864,22 @@
       <c r="A19" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="G19" s="32" t="s">
+      <c r="G19" s="31" t="s">
         <v>141</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -3893,22 +3905,22 @@
       <c r="A20" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="G20" s="32" t="s">
+      <c r="G20" s="31" t="s">
         <v>191</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -3948,24 +3960,24 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" style="24" customWidth="1"/>
     <col min="3" max="3" width="34.140625" customWidth="1"/>
     <col min="4" max="4" width="136.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="14" customFormat="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="76"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="75"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -3979,7 +3991,7 @@
       <c r="A3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="19" t="s">
@@ -3991,7 +4003,7 @@
       <c r="A4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>65</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -4003,7 +4015,7 @@
       <c r="A5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>78</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -4015,7 +4027,7 @@
       <c r="A6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="19" t="s">
@@ -4027,10 +4039,10 @@
       <c r="A7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>92</v>
       </c>
       <c r="D7" s="9"/>
@@ -4039,10 +4051,10 @@
       <c r="A8" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D8" s="9"/>
@@ -4051,10 +4063,10 @@
       <c r="A9" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>103</v>
       </c>
       <c r="D9" s="9"/>
@@ -4063,10 +4075,10 @@
       <c r="A10" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>111</v>
       </c>
       <c r="D10" s="9"/>
@@ -4075,10 +4087,10 @@
       <c r="A11" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>116</v>
       </c>
       <c r="D11" s="9"/>
@@ -4087,10 +4099,10 @@
       <c r="A12" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>121</v>
       </c>
       <c r="D12" s="9"/>
@@ -4099,10 +4111,10 @@
       <c r="A13" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>126</v>
       </c>
       <c r="D13" s="9"/>
@@ -4111,10 +4123,10 @@
       <c r="A14" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4122,277 +4134,277 @@
       <c r="A15" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>136</v>
       </c>
       <c r="D15" s="20"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="28"/>
+      <c r="A16" s="27"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="28"/>
+      <c r="A17" s="27"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="28"/>
+      <c r="A18" s="27"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="28"/>
+      <c r="A19" s="27"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="28"/>
+      <c r="A20" s="27"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="28"/>
+      <c r="A21" s="27"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="28"/>
+      <c r="A22" s="27"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="28"/>
+      <c r="A23" s="27"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="28"/>
+      <c r="A24" s="27"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="28"/>
+      <c r="A25" s="27"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="28"/>
+      <c r="A26" s="27"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="28"/>
+      <c r="A27" s="27"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="28"/>
+      <c r="A28" s="27"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="28"/>
+      <c r="A29" s="27"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="28"/>
+      <c r="A30" s="27"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="28"/>
+      <c r="A31" s="27"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="28"/>
+      <c r="A32" s="27"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="28"/>
+      <c r="A33" s="27"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="28"/>
+      <c r="A34" s="27"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="28"/>
+      <c r="A35" s="27"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="28"/>
+      <c r="A36" s="27"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="28"/>
+      <c r="A37" s="27"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="28"/>
+      <c r="A38" s="27"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="28"/>
+      <c r="A39" s="27"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="28"/>
+      <c r="A40" s="27"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="28"/>
+      <c r="A41" s="27"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="28"/>
+      <c r="A42" s="27"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="28"/>
+      <c r="A43" s="27"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="28"/>
+      <c r="A44" s="27"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="28"/>
+      <c r="A45" s="27"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="28"/>
+      <c r="A46" s="27"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="28"/>
+      <c r="A47" s="27"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="28"/>
+      <c r="A48" s="27"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="28"/>
+      <c r="A49" s="27"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="28"/>
+      <c r="A50" s="27"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="28"/>
+      <c r="A51" s="27"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="28"/>
+      <c r="A52" s="27"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="28"/>
+      <c r="A53" s="27"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="28"/>
+      <c r="A54" s="27"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="28"/>
+      <c r="A55" s="27"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="28"/>
+      <c r="A56" s="27"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="28"/>
+      <c r="A57" s="27"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="28"/>
+      <c r="A58" s="27"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="28"/>
+      <c r="A59" s="27"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="28"/>
+      <c r="A60" s="27"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="28"/>
+      <c r="A61" s="27"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="28"/>
+      <c r="A62" s="27"/>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="28"/>
+      <c r="A63" s="27"/>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="28"/>
+      <c r="A64" s="27"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="28"/>
+      <c r="A65" s="27"/>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="28"/>
+      <c r="A66" s="27"/>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="28"/>
+      <c r="A67" s="27"/>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="28"/>
+      <c r="A68" s="27"/>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="28"/>
+      <c r="A69" s="27"/>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="28"/>
+      <c r="A70" s="27"/>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="28"/>
+      <c r="A71" s="27"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="28"/>
+      <c r="A72" s="27"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="28"/>
+      <c r="A73" s="27"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="28"/>
+      <c r="A74" s="27"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="28"/>
+      <c r="A75" s="27"/>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="28"/>
+      <c r="A76" s="27"/>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="28"/>
+      <c r="A77" s="27"/>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="28"/>
+      <c r="A78" s="27"/>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="28"/>
+      <c r="A79" s="27"/>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="28"/>
+      <c r="A80" s="27"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="28"/>
+      <c r="A81" s="27"/>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="28"/>
+      <c r="A82" s="27"/>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="28"/>
+      <c r="A83" s="27"/>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="28"/>
+      <c r="A84" s="27"/>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="28"/>
+      <c r="A85" s="27"/>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="28"/>
+      <c r="A86" s="27"/>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="28"/>
+      <c r="A87" s="27"/>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="28"/>
+      <c r="A88" s="27"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="28"/>
+      <c r="A89" s="27"/>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="28"/>
+      <c r="A90" s="27"/>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="28"/>
+      <c r="A91" s="27"/>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="28"/>
+      <c r="A92" s="27"/>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="28"/>
+      <c r="A93" s="27"/>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="28"/>
+      <c r="A94" s="27"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="28"/>
+      <c r="A95" s="27"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="28"/>
+      <c r="A96" s="27"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="28"/>
+      <c r="A97" s="27"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="28"/>
+      <c r="A98" s="27"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="28"/>
+      <c r="A99" s="27"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="28"/>
+      <c r="A100" s="27"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="28"/>
+      <c r="A101" s="27"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="28"/>
+      <c r="A102" s="27"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="28"/>
+      <c r="A103" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4411,7 +4423,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4430,37 +4442,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="80" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4550,7 +4562,7 @@
       <c r="E4" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="21" t="s">
         <v>47</v>
       </c>
       <c r="G4" s="19" t="s">
@@ -4585,7 +4597,7 @@
       <c r="E5" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="21" t="s">
         <v>49</v>
       </c>
       <c r="G5" s="19" t="s">
@@ -4620,10 +4632,10 @@
       <c r="E6" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="23" t="s">
         <v>137</v>
       </c>
       <c r="H6" s="19" t="s">
@@ -4648,7 +4660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -4660,10 +4672,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="14" customFormat="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="78"/>
+      <c r="B1" s="77"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
     </row>
@@ -4818,37 +4830,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="J2" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="K2" s="59" t="s">
+      <c r="K2" s="58" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4874,10 +4886,10 @@
       <c r="G3" s="3">
         <v>0.73680000000000001</v>
       </c>
-      <c r="H3" s="58">
+      <c r="H3" s="57">
         <v>0</v>
       </c>
-      <c r="I3" s="58">
+      <c r="I3" s="57">
         <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
